--- a/experiments/09_power_eval_1/temperatures2_i4_i5.xlsx
+++ b/experiments/09_power_eval_1/temperatures2_i4_i5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TEMP2\experiment_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45AC28-E4A1-4B37-A12C-CB44F2F4F98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD10B67B-9AAD-496A-8363-7CC4F8B32C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D9B2736F-8484-4142-882C-94BEA7D2BB42}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>Run 1</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Mod. B Eik LTF</t>
+  </si>
+  <si>
+    <t>Mod.2 B predictor</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
                     <c:v>0.30944825451474356</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>5.7534530694375856E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -918,7 +921,7 @@
                     <c:v>0.30944825451474356</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>5.7534530694375856E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -967,7 +970,7 @@
                   <c:v>51.077333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>56.681333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1019,7 +1022,7 @@
                     <c:v>0.53103170024647928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>8.5103858118577194E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -1037,7 +1040,7 @@
                     <c:v>0.53103170024647928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>8.5103858118577194E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -1086,7 +1089,7 @@
                   <c:v>52.331999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>57.955999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1227,6 +1230,9 @@
               <c:f>'imx8 results'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod.2 B predictor</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1253,10 +1259,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.45607406805863837</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.1233999819917166</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -1271,10 +1277,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.45607406805863837</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.1233999819917166</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -1320,10 +1326,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>55.358666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>57.124666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2445,7 +2451,7 @@
                     <c:v>0.10430890022748061</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.17800434451627209</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -2463,7 +2469,7 @@
                     <c:v>0.10430890022748061</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.17800434451627209</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -2512,7 +2518,7 @@
                   <c:v>29.857200000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>33.012799999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2564,7 +2570,7 @@
                     <c:v>0.17660962601170768</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.11443942599568548</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -2582,7 +2588,7 @@
                     <c:v>0.17660962601170768</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.11443942599568548</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -2631,7 +2637,7 @@
                   <c:v>31.093400000000031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>34.386333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2772,6 +2778,9 @@
               <c:f>'imx8 results'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod.2 B predictor</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2798,10 +2807,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>6.4173168501760774E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.11246822761216708</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -2816,10 +2825,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>6.4173168501760774E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.11246822761216708</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -2865,10 +2874,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30.376733333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>32.824133333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4984,7 +4993,7 @@
   <dimension ref="A35:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5373,41 +5382,55 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="17" t="e">
+      <c r="A44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3">
+        <v>55.96</v>
+      </c>
+      <c r="C44" s="3">
+        <v>55.26</v>
+      </c>
+      <c r="D44" s="3">
+        <v>54.856000000000002</v>
+      </c>
+      <c r="E44" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="17" t="e">
+        <v>55.358666666666664</v>
+      </c>
+      <c r="F44" s="17">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.45607406805863837</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.420400000000001</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.423799999999996</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.286000000000001</v>
       </c>
       <c r="J44" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30.376733333333334</v>
       </c>
       <c r="K44" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="22"/>
+        <v>6.4173168501760774E-2</v>
+      </c>
+      <c r="L44" s="21">
+        <v>25.5396</v>
+      </c>
+      <c r="M44" s="3">
+        <v>24.836200000000002</v>
+      </c>
+      <c r="N44" s="22">
+        <v>24.57</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -5710,79 +5733,103 @@
       <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="17" t="e">
+      <c r="B55" s="3">
+        <v>56.66</v>
+      </c>
+      <c r="C55" s="3">
+        <v>56.76</v>
+      </c>
+      <c r="D55" s="3">
+        <v>56.624000000000002</v>
+      </c>
+      <c r="E55" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="17" t="e">
+        <v>56.681333333333328</v>
+      </c>
+      <c r="F55" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>5.7534530694375856E-2</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32.765599999999992</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>33.095199999999998</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>33.177599999999998</v>
       </c>
       <c r="J55" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>33.012799999999991</v>
       </c>
       <c r="K55" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="21"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="22"/>
+        <v>0.17800434451627209</v>
+      </c>
+      <c r="L55" s="21">
+        <v>23.894400000000001</v>
+      </c>
+      <c r="M55" s="3">
+        <v>23.6648</v>
+      </c>
+      <c r="N55" s="22">
+        <v>23.446400000000001</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="17" t="e">
+      <c r="B56" s="3">
+        <v>58.008000000000003</v>
+      </c>
+      <c r="C56" s="3">
+        <v>58.024000000000001</v>
+      </c>
+      <c r="D56" s="3">
+        <v>57.835999999999999</v>
+      </c>
+      <c r="E56" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="17" t="e">
+        <v>57.955999999999996</v>
+      </c>
+      <c r="F56" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>8.5103858118577194E-2</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34.225200000000001</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>34.453800000000001</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="J56" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>34.386333333333333</v>
       </c>
       <c r="K56" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="21"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="22"/>
+        <v>0.11443942599568548</v>
+      </c>
+      <c r="L56" s="21">
+        <v>23.782800000000002</v>
+      </c>
+      <c r="M56" s="3">
+        <v>23.5702</v>
+      </c>
+      <c r="N56" s="22">
+        <v>23.356000000000002</v>
+      </c>
     </row>
     <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -5824,41 +5871,55 @@
       <c r="N57" s="22"/>
     </row>
     <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="17" t="e">
+      <c r="A58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="3">
+        <v>57.146000000000001</v>
+      </c>
+      <c r="C58" s="3">
+        <v>57.264000000000003</v>
+      </c>
+      <c r="D58" s="3">
+        <v>56.963999999999999</v>
+      </c>
+      <c r="E58" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="17" t="e">
+        <v>57.124666666666663</v>
+      </c>
+      <c r="F58" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.1233999819917166</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32.694000000000003</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32.968400000000003</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>32.81</v>
       </c>
       <c r="J58" s="17">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>32.824133333333336</v>
       </c>
       <c r="K58" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="21"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="22"/>
+        <v>0.11246822761216708</v>
+      </c>
+      <c r="L58" s="21">
+        <v>24.452000000000002</v>
+      </c>
+      <c r="M58" s="3">
+        <v>24.2956</v>
+      </c>
+      <c r="N58" s="22">
+        <v>24.154</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
